--- a/autoConditions/test3Conditions.xlsx
+++ b/autoConditions/test3Conditions.xlsx
@@ -459,17 +459,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>novelaudio/62_pitako3.wav</t>
+          <t>novelaudio/72_topata3.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>novelaudio/62_pitako2.wav</t>
+          <t>novelaudio/72_topata2.wav</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pngimages/62_screwdriver.png</t>
+          <t>pngimages/72_nose.png</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -479,37 +479,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>novelaudio/54_kapapa2.wav</t>
+          <t>novelaudio/40_kototi1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>novelaudio/54_kapapa1.wav</t>
+          <t>novelaudio/40_kototi2.wav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>pngimages/54_toiletpaper.png</t>
+          <t>pngimages/40_spoon.png</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>novelaudio/60_pipopa3.wav</t>
+          <t>novelaudio/77_takopo1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>novelaudio/60_pipopa1.wav</t>
+          <t>novelaudio/77_takopo2.wav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pngimages/60_firewood.png</t>
+          <t>pngimages/77_bear.png</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -519,17 +519,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>novelaudio/43_potaki1.wav</t>
+          <t>novelaudio/73_takiti3.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>novelaudio/43_potaki2.wav</t>
+          <t>novelaudio/73_takiti1.wav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pngimages/43_guitar.png</t>
+          <t>pngimages/73_car.png</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -539,17 +539,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>novelaudio/47_takiko3.wav</t>
+          <t>novelaudio/44_pokato1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>novelaudio/47_takiko1.wav</t>
+          <t>novelaudio/44_pokato2.wav</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pngimages/47_notebook.png</t>
+          <t>pngimages/44_envelope.png</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -559,37 +559,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>novelaudio/33_tipoka3.wav</t>
+          <t>novelaudio/81_kakapa2.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>novelaudio/33_tipoka2.wav</t>
+          <t>novelaudio/81_kakapa1.wav</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pngimages/33_watermelon.png</t>
+          <t>pngimages/81_cat.png</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>novelaudio/39_kotipa3.wav</t>
+          <t>novelaudio/36_pipapa2.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>novelaudio/39_kotipa2.wav</t>
+          <t>novelaudio/36_pipapa3.wav</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pngimages/39_fork.png</t>
+          <t>pngimages/36_microwave.png</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -599,17 +599,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>novelaudio/58_kipoki1.wav</t>
+          <t>novelaudio/28_pipiki3.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>novelaudio/58_kipoki2.wav</t>
+          <t>novelaudio/28_pipiki1.wav</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pngimages/58_nail.png</t>
+          <t>pngimages/28_grape.png</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -619,57 +619,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>novelaudio/45_totaka1.wav</t>
+          <t>novelaudio/57_tipipa3.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>novelaudio/45_totaka2.wav</t>
+          <t>novelaudio/57_tipipa1.wav</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pngimages/45_scissors.png</t>
+          <t>pngimages/57_flashlight.png</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>novelaudio/55_pikiki2.wav</t>
+          <t>novelaudio/33_tipoka3.wav</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>novelaudio/55_pikiki1.wav</t>
+          <t>novelaudio/33_tipoka1.wav</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pngimages/55_toilet.png</t>
+          <t>pngimages/33_watermelon.png</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>novelaudio/50_katoko1.wav</t>
+          <t>novelaudio/80_tatato1.wav</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>novelaudio/50_katoko2.wav</t>
+          <t>novelaudio/80_tatato2.wav</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pngimages/50_ruler.png</t>
+          <t>pngimages/80_dog.png</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -679,77 +679,77 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>novelaudio/64_popiti1.wav</t>
+          <t>novelaudio/30_tikipa1.wav</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>novelaudio/64_popiti3.wav</t>
+          <t>novelaudio/30_tikipa3.wav</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pngimages/64_shovel.png</t>
+          <t>pngimages/30_mushroom.png</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>novelaudio/69_kotoka1.wav</t>
+          <t>novelaudio/62_pitako2.wav</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>novelaudio/69_kotoka3.wav</t>
+          <t>novelaudio/62_pitako1.wav</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pngimages/69_tooth.png</t>
+          <t>pngimages/62_screwdriver.png</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>novelaudio/36_pipapa3.wav</t>
+          <t>novelaudio/69_kotoka3.wav</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>novelaudio/36_pipapa2.wav</t>
+          <t>novelaudio/69_kotoka1.wav</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>pngimages/36_microwave.png</t>
+          <t>pngimages/69_tooth.png</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>novelaudio/56_pipiko3.wav</t>
+          <t>novelaudio/52_pakaki1.wav</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>novelaudio/56_pipiko1.wav</t>
+          <t>novelaudio/52_pakaki2.wav</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pngimages/56_towel.png</t>
+          <t>pngimages/52_newspaper.png</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -759,57 +759,57 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>novelaudio/61_pikati2.wav</t>
+          <t>novelaudio/59_tipoko1.wav</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>novelaudio/61_pikati3.wav</t>
+          <t>novelaudio/59_tipoko2.wav</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pngimages/61_key.png</t>
+          <t>pngimages/59_umbrella.png</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>novelaudio/53_patapo3.wav</t>
+          <t>novelaudio/55_pikiki1.wav</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>novelaudio/53_patapo1.wav</t>
+          <t>novelaudio/55_pikiki2.wav</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>pngimages/53_hammer.png</t>
+          <t>pngimages/55_toilet.png</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>novelaudio/38_kokiko1.wav</t>
+          <t>novelaudio/39_kotipa3.wav</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>novelaudio/38_kokiko2.wav</t>
+          <t>novelaudio/39_kotipa1.wav</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pngimages/38_plate.png</t>
+          <t>pngimages/39_fork.png</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -819,17 +819,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>novelaudio/52_pakaki1.wav</t>
+          <t>novelaudio/67_tokoki1.wav</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>novelaudio/52_pakaki2.wav</t>
+          <t>novelaudio/67_tokoki3.wav</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pngimages/52_newspaper.png</t>
+          <t>pngimages/67_laptop.png</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>novelaudio/48_pakipa3.wav</t>
+          <t>novelaudio/48_pakipa2.wav</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -859,41 +859,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>novelaudio/66_kopipa3.wav</t>
+          <t>novelaudio/61_pikati1.wav</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>novelaudio/66_kopipa2.wav</t>
+          <t>novelaudio/61_pikati2.wav</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>pngimages/66_safe.png</t>
+          <t>pngimages/61_key.png</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>novelaudio/59_tipoko2.wav</t>
+          <t>novelaudio/50_katoko3.wav</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>novelaudio/59_tipoko1.wav</t>
+          <t>novelaudio/50_katoko1.wav</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>pngimages/59_umbrella.png</t>
+          <t>pngimages/50_ruler.png</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -904,7 +904,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>novelaudio/74_tatiko2.wav</t>
+          <t>novelaudio/74_tatiko3.wav</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -919,17 +919,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>novelaudio/29_pipito3.wav</t>
+          <t>novelaudio/42_tokota3.wav</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>novelaudio/29_pipito1.wav</t>
+          <t>novelaudio/42_tokota1.wav</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>pngimages/29_cherry.png</t>
+          <t>pngimages/42_harp.png</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -939,17 +939,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>novelaudio/41_pototo2.wav</t>
+          <t>novelaudio/66_kopipa2.wav</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>novelaudio/41_pototo1.wav</t>
+          <t>novelaudio/66_kopipa3.wav</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>pngimages/41_piano.png</t>
+          <t>pngimages/66_safe.png</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -959,17 +959,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>novelaudio/68_pokopo1.wav</t>
+          <t>novelaudio/58_kipoki2.wav</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>novelaudio/68_pokopo2.wav</t>
+          <t>novelaudio/58_kipoki3.wav</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pngimages/68_heart.png</t>
+          <t>pngimages/58_nail.png</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -979,17 +979,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>novelaudio/31_kikopi2.wav</t>
+          <t>novelaudio/38_kokiko1.wav</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>novelaudio/31_kikopi1.wav</t>
+          <t>novelaudio/38_kokiko2.wav</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>pngimages/31_tomato.png</t>
+          <t>pngimages/38_plate.png</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -999,97 +999,97 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>novelaudio/49_tatopi3.wav</t>
+          <t>novelaudio/53_patapo1.wav</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>novelaudio/49_tatopi1.wav</t>
+          <t>novelaudio/53_patapo3.wav</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>pngimages/49_calculator.png</t>
+          <t>pngimages/53_hammer.png</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>novelaudio/51_tapopa2.wav</t>
+          <t>novelaudio/31_kikopi2.wav</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>novelaudio/51_tapopa1.wav</t>
+          <t>novelaudio/31_kikopi3.wav</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pngimages/51_pencil.png</t>
+          <t>pngimages/31_tomato.png</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>novelaudio/76_patoti1.wav</t>
+          <t>novelaudio/49_tatopi2.wav</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>novelaudio/76_patoti2.wav</t>
+          <t>novelaudio/49_tatopi1.wav</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>pngimages/76_rabbit.png</t>
+          <t>pngimages/49_calculator.png</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>novelaudio/67_tokoki1.wav</t>
+          <t>novelaudio/46_tapiti2.wav</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>novelaudio/67_tokoki3.wav</t>
+          <t>novelaudio/46_tapiti1.wav</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pngimages/67_laptop.png</t>
+          <t>pngimages/46_paper.png</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>novelaudio/79_katapi1.wav</t>
+          <t>novelaudio/75_kakita1.wav</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>novelaudio/79_katapi3.wav</t>
+          <t>novelaudio/75_kakita3.wav</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>pngimages/79_pig.png</t>
+          <t>pngimages/75_chicken.png</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1099,17 +1099,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>novelaudio/77_takopo1.wav</t>
+          <t>novelaudio/64_popiti1.wav</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>novelaudio/77_takopo2.wav</t>
+          <t>novelaudio/64_popiti2.wav</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>pngimages/77_bear.png</t>
+          <t>pngimages/64_shovel.png</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1119,17 +1119,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>novelaudio/78_kakoka1.wav</t>
+          <t>novelaudio/56_pipiko3.wav</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>novelaudio/78_kakoka3.wav</t>
+          <t>novelaudio/56_pipiko2.wav</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pngimages/78_cow.png</t>
+          <t>pngimages/56_towel.png</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1139,17 +1139,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>novelaudio/81_kakapa1.wav</t>
+          <t>novelaudio/76_patoti1.wav</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>novelaudio/81_kakapa2.wav</t>
+          <t>novelaudio/76_patoti3.wav</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>pngimages/81_cat.png</t>
+          <t>pngimages/76_rabbit.png</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1159,37 +1159,37 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>novelaudio/30_tikipa3.wav</t>
+          <t>novelaudio/43_potaki1.wav</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>novelaudio/30_tikipa2.wav</t>
+          <t>novelaudio/43_potaki2.wav</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>pngimages/30_mushroom.png</t>
+          <t>pngimages/43_guitar.png</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>novelaudio/35_titato3.wav</t>
+          <t>novelaudio/71_kotato1.wav</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>novelaudio/35_titato2.wav</t>
+          <t>novelaudio/71_kotato2.wav</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>pngimages/35_skillet.png</t>
+          <t>pngimages/71_eye.png</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1199,27 +1199,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>novelaudio/34_kipaki2.wav</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>novelaudio/34_kipaki3.wav</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>novelaudio/34_kipaki2.wav</t>
-        </is>
-      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>pngimages/34_knife.png</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>novelaudio/70_kopati3.wav</t>
+          <t>novelaudio/70_kopati1.wav</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1239,17 +1239,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>novelaudio/63_pitapa2.wav</t>
+          <t>novelaudio/37_kokiti1.wav</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>novelaudio/63_pitapa3.wav</t>
+          <t>novelaudio/37_kokiti3.wav</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>pngimages/63_chair.png</t>
+          <t>pngimages/37_mug.png</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1259,17 +1259,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>novelaudio/46_tapiti1.wav</t>
+          <t>novelaudio/63_pitapa2.wav</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>novelaudio/46_tapiti2.wav</t>
+          <t>novelaudio/63_pitapa1.wav</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>pngimages/46_paper.png</t>
+          <t>pngimages/63_chair.png</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1279,37 +1279,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>novelaudio/44_pokato2.wav</t>
+          <t>novelaudio/79_katapi2.wav</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>novelaudio/44_pokato1.wav</t>
+          <t>novelaudio/79_katapi1.wav</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>pngimages/44_envelope.png</t>
+          <t>pngimages/79_pig.png</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>novelaudio/40_kototi2.wav</t>
+          <t>novelaudio/35_titato1.wav</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>novelaudio/40_kototi1.wav</t>
+          <t>novelaudio/35_titato2.wav</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>pngimages/40_spoon.png</t>
+          <t>pngimages/35_skillet.png</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1319,37 +1319,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>novelaudio/37_kokiti2.wav</t>
+          <t>novelaudio/32_kipoto2.wav</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>novelaudio/37_kokiti1.wav</t>
+          <t>novelaudio/32_kipoto1.wav</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>pngimages/37_mug.png</t>
+          <t>pngimages/32_greenpepper.png</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>novelaudio/80_tatato2.wav</t>
+          <t>novelaudio/29_pipito1.wav</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>novelaudio/80_tatato1.wav</t>
+          <t>novelaudio/29_pipito3.wav</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pngimages/80_dog.png</t>
+          <t>pngimages/29_cherry.png</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1359,37 +1359,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>novelaudio/28_pipiki3.wav</t>
+          <t>novelaudio/47_takiko1.wav</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>novelaudio/28_pipiki1.wav</t>
+          <t>novelaudio/47_takiko2.wav</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>pngimages/28_grape.png</t>
+          <t>pngimages/47_notebook.png</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>novelaudio/73_takiti3.wav</t>
+          <t>novelaudio/60_pipopa2.wav</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>novelaudio/73_takiti1.wav</t>
+          <t>novelaudio/60_pipopa3.wav</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>pngimages/73_car.png</t>
+          <t>pngimages/60_firewood.png</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1399,97 +1399,97 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>novelaudio/75_kakita1.wav</t>
+          <t>novelaudio/65_totipo2.wav</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>novelaudio/75_kakita3.wav</t>
+          <t>novelaudio/65_totipo1.wav</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>pngimages/75_chicken.png</t>
+          <t>pngimages/65_wrench.png</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>novelaudio/57_tipipa3.wav</t>
+          <t>novelaudio/54_kapapa3.wav</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>novelaudio/57_tipipa1.wav</t>
+          <t>novelaudio/54_kapapa1.wav</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>pngimages/57_flashlight.png</t>
+          <t>pngimages/54_toiletpaper.png</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>novelaudio/71_kotato3.wav</t>
+          <t>novelaudio/68_pokopo1.wav</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>novelaudio/71_kotato2.wav</t>
+          <t>novelaudio/68_pokopo3.wav</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pngimages/71_eye.png</t>
+          <t>pngimages/68_heart.png</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>novelaudio/42_tokota1.wav</t>
+          <t>novelaudio/78_kakoka1.wav</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>novelaudio/42_tokota3.wav</t>
+          <t>novelaudio/78_kakoka3.wav</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>pngimages/42_harp.png</t>
+          <t>pngimages/78_cow.png</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>novelaudio/72_topata2.wav</t>
+          <t>novelaudio/51_tapopa1.wav</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>novelaudio/72_topata1.wav</t>
+          <t>novelaudio/51_tapopa2.wav</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>pngimages/72_nose.png</t>
+          <t>pngimages/51_pencil.png</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1499,37 +1499,37 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>novelaudio/65_totipo3.wav</t>
+          <t>novelaudio/45_totaka2.wav</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>novelaudio/65_totipo1.wav</t>
+          <t>novelaudio/45_totaka3.wav</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>pngimages/65_wrench.png</t>
+          <t>pngimages/45_scissors.png</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>novelaudio/32_kipoto3.wav</t>
+          <t>novelaudio/41_pototo3.wav</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>novelaudio/32_kipoto2.wav</t>
+          <t>novelaudio/41_pototo1.wav</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>pngimages/32_greenpepper.png</t>
+          <t>pngimages/41_piano.png</t>
         </is>
       </c>
       <c r="D55" t="n">
